--- a/_seo/semantic-core.xlsx
+++ b/_seo/semantic-core.xlsx
@@ -16,9 +16,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>ОСТОРОЖНО МОШЕННИКИ! Lohotron КИДАЛЫ, АФЕРИСТЫ, ЖУЛИКИ, ПРОХОДИМЦЫ, ОБМАНЬЩИКИ И ПЛОХИЕ ЛЮДИ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+  <si>
+    <t>Кидалы</t>
+  </si>
+  <si>
+    <t>Лохотрон</t>
+  </si>
+  <si>
+    <t>Аферисты</t>
+  </si>
+  <si>
+    <t>Проходимцы</t>
+  </si>
+  <si>
+    <t>Мошенничество (Мошенники)</t>
+  </si>
+  <si>
+    <t>10 тис.–100 тис.</t>
+  </si>
+  <si>
+    <t>1 тис.–10 тис.</t>
+  </si>
+  <si>
+    <t>Жулик</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мошеники </t>
+  </si>
+  <si>
+    <t>100-1тыс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">база мошенников </t>
+  </si>
+  <si>
+    <t>100–1 тис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">база 09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">черный список компаний </t>
+  </si>
+  <si>
+    <t>база данных мошенников</t>
+  </si>
+  <si>
+    <t>10–100</t>
+  </si>
+  <si>
+    <t>обманщик</t>
+  </si>
+  <si>
+    <t>чёрный список мошенников</t>
+  </si>
+  <si>
+    <t xml:space="preserve">недобросовестные компании </t>
+  </si>
+  <si>
+    <t>интернет мошенничества</t>
+  </si>
+  <si>
+    <t>100–1 тис.</t>
+  </si>
+  <si>
+    <t>мошенничество в интернете</t>
+  </si>
+  <si>
+    <t>сайты мошенников</t>
+  </si>
+  <si>
+    <t>осторожно мошенники</t>
   </si>
 </sst>
 </file>
@@ -357,17 +429,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
